--- a/nmadb/479688.xlsx
+++ b/nmadb/479688.xlsx
@@ -1,6 +1,864 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>study year</t>
+  </si>
+  <si>
+    <t>study name</t>
+  </si>
+  <si>
+    <t>Study id</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>CIL</t>
+  </si>
+  <si>
+    <t>CIH</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Outcome: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Major coronary events (MACE)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4S </t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>placebo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simvastatin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pravastatin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIPID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atorvastatin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROSPER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WOSCOPS </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Two studies (ALLHAT-LLT and GREACE) were not included in the main analysis but only in senstivity analysis and influenced results for MACE outcome</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ASCOT-LLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDS </t>
+  </si>
+  <si>
+    <t>Sensitivity analysis only:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALLHAT-LLT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREACE </t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="27">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Humanist521BT"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="35">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="18">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.49995422223578601"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="43">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="2"/>
+    <cellStyle name="20% - Accent2" xfId="3"/>
+    <cellStyle name="20% - Accent3" xfId="4"/>
+    <cellStyle name="20% - Accent4" xfId="5"/>
+    <cellStyle name="20% - Accent5" xfId="6"/>
+    <cellStyle name="20% - Accent6" xfId="7"/>
+    <cellStyle name="40% - Accent1" xfId="8"/>
+    <cellStyle name="40% - Accent2" xfId="9"/>
+    <cellStyle name="40% - Accent3" xfId="10"/>
+    <cellStyle name="40% - Accent4" xfId="11"/>
+    <cellStyle name="40% - Accent5" xfId="12"/>
+    <cellStyle name="40% - Accent6" xfId="13"/>
+    <cellStyle name="60% - Accent1" xfId="14"/>
+    <cellStyle name="60% - Accent2" xfId="15"/>
+    <cellStyle name="60% - Accent3" xfId="16"/>
+    <cellStyle name="60% - Accent4" xfId="17"/>
+    <cellStyle name="60% - Accent5" xfId="18"/>
+    <cellStyle name="60% - Accent6" xfId="19"/>
+    <cellStyle name="Accent1 2" xfId="20" customBuiltin="1"/>
+    <cellStyle name="Accent2 2" xfId="21" customBuiltin="1"/>
+    <cellStyle name="Accent3 2" xfId="22" customBuiltin="1"/>
+    <cellStyle name="Accent4 2" xfId="23" customBuiltin="1"/>
+    <cellStyle name="Accent5 2" xfId="24" customBuiltin="1"/>
+    <cellStyle name="Accent6 2" xfId="25" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="26"/>
+    <cellStyle name="Calculation" xfId="27"/>
+    <cellStyle name="Check Cell" xfId="28"/>
+    <cellStyle name="Explanatory Text" xfId="29"/>
+    <cellStyle name="Good" xfId="30"/>
+    <cellStyle name="Heading 1" xfId="31"/>
+    <cellStyle name="Heading 2" xfId="32"/>
+    <cellStyle name="Heading 3" xfId="33"/>
+    <cellStyle name="Heading 4" xfId="34"/>
+    <cellStyle name="Input" xfId="35"/>
+    <cellStyle name="Linked Cell" xfId="36"/>
+    <cellStyle name="Neutral" xfId="37"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Note" xfId="38"/>
+    <cellStyle name="Output" xfId="39"/>
+    <cellStyle name="Title" xfId="40"/>
+    <cellStyle name="Total 2" xfId="41" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="42"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +932,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +966,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +1000,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +1135,474 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6">
+        <v>1994</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.69</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="16">
+        <v>1</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="14">
+        <v>2</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6">
+        <v>1996</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="14">
+        <v>3</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1">
+      <c r="A5" s="6">
+        <v>1998</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21">
+        <v>4</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="6">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="6">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="6">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L7:O10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/nmadb/479688.xlsx
+++ b/nmadb/479688.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="sensitivity analysis" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>study year</t>
   </si>
@@ -24,25 +24,16 @@
     <t>study name</t>
   </si>
   <si>
-    <t>Study id</t>
-  </si>
-  <si>
     <t>t1</t>
   </si>
   <si>
     <t>t2</t>
   </si>
   <si>
-    <t>RR</t>
-  </si>
-  <si>
     <t>CIL</t>
   </si>
   <si>
     <t>CIH</t>
-  </si>
-  <si>
-    <t>SE</t>
   </si>
   <si>
     <t>Harm</t>
@@ -120,6 +111,18 @@
   </si>
   <si>
     <t xml:space="preserve">GREACE </t>
+  </si>
+  <si>
+    <t>effect=HR</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>se</t>
   </si>
 </sst>
 </file>
@@ -760,7 +763,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -806,6 +809,8 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="2"/>
@@ -826,12 +831,12 @@
     <cellStyle name="60% - Accent4" xfId="17"/>
     <cellStyle name="60% - Accent5" xfId="18"/>
     <cellStyle name="60% - Accent6" xfId="19"/>
-    <cellStyle name="Accent1 2" xfId="20" customBuiltin="1"/>
-    <cellStyle name="Accent2 2" xfId="21" customBuiltin="1"/>
-    <cellStyle name="Accent3 2" xfId="22" customBuiltin="1"/>
-    <cellStyle name="Accent4 2" xfId="23" customBuiltin="1"/>
-    <cellStyle name="Accent5 2" xfId="24" customBuiltin="1"/>
-    <cellStyle name="Accent6 2" xfId="25" customBuiltin="1"/>
+    <cellStyle name="Accent1 2" xfId="20"/>
+    <cellStyle name="Accent2 2" xfId="21"/>
+    <cellStyle name="Accent3 2" xfId="22"/>
+    <cellStyle name="Accent4 2" xfId="23"/>
+    <cellStyle name="Accent5 2" xfId="24"/>
+    <cellStyle name="Accent6 2" xfId="25"/>
     <cellStyle name="Bad" xfId="26"/>
     <cellStyle name="Calculation" xfId="27"/>
     <cellStyle name="Check Cell" xfId="28"/>
@@ -849,7 +854,7 @@
     <cellStyle name="Note" xfId="38"/>
     <cellStyle name="Output" xfId="39"/>
     <cellStyle name="Title" xfId="40"/>
-    <cellStyle name="Total 2" xfId="41" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="41"/>
     <cellStyle name="Warning Text" xfId="42"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1142,13 +1147,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A11" sqref="A11:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="9" max="9" width="11.42578125" style="28"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
       <c r="A1" s="7" t="s">
@@ -1158,32 +1166,32 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="11"/>
@@ -1194,7 +1202,7 @@
         <v>1994</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -1214,17 +1222,20 @@
       <c r="H2" s="5">
         <v>0.77</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="27">
+        <f>(H2-G2)/(1.96^2)</f>
+        <v>3.9046230737192843E-2</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M2" s="16">
         <v>1</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O2" s="1"/>
     </row>
@@ -1233,7 +1244,7 @@
         <v>2002</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
@@ -1253,7 +1264,10 @@
       <c r="H3" s="5">
         <v>0.8</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="27">
+        <f>(H3-G3)/(1.96^2)</f>
+        <v>3.1236984589754272E-2</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="18"/>
@@ -1261,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O3" s="1"/>
     </row>
@@ -1270,7 +1284,7 @@
         <v>1996</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -1290,7 +1304,10 @@
       <c r="H4" s="5">
         <v>0.91</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="27">
+        <f>(H4-G4)/(1.96^2)</f>
+        <v>6.7680133277800925E-2</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="18"/>
@@ -1298,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O4" s="1"/>
     </row>
@@ -1307,7 +1324,7 @@
         <v>1998</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
@@ -1327,7 +1344,10 @@
       <c r="H5" s="5">
         <v>0.86</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="27">
+        <f>(H5-G5)/(1.96^2)</f>
+        <v>4.1649312786339036E-2</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="20"/>
@@ -1335,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="O5" s="1"/>
     </row>
@@ -1344,7 +1364,7 @@
         <v>2002</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -1364,7 +1384,10 @@
       <c r="H6" s="5">
         <v>0.96</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="27">
+        <f>(H6-G6)/(1.96^2)</f>
+        <v>6.5077051228654731E-2</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="12"/>
@@ -1377,7 +1400,7 @@
         <v>1995</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="5">
         <v>6</v>
@@ -1397,11 +1420,14 @@
       <c r="H7" s="5">
         <v>0.84</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="27">
+        <f>(H7-G7)/(1.96^2)</f>
+        <v>6.7680133277800925E-2</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
@@ -1412,7 +1438,7 @@
         <v>2003</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -1432,7 +1458,10 @@
       <c r="H8" s="5">
         <v>0.81</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="27">
+        <f>(H8-G8)/(1.96^2)</f>
+        <v>8.5901707621824266E-2</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="26"/>
@@ -1445,7 +1474,7 @@
         <v>2004</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
@@ -1465,7 +1494,10 @@
       <c r="H9" s="5">
         <v>0.81</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="27">
+        <f>(H9-G9)/(1.96^2)</f>
+        <v>0.11974177426072473</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="26"/>
@@ -1482,98 +1514,13 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5">
-        <v>9</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.91</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.79</v>
-      </c>
-      <c r="H12" s="5">
-        <v>1.03</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="6">
-        <v>2002</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>4</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.46</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.66</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1585,12 +1532,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1.03</v>
+      </c>
+      <c r="I2" s="27">
+        <f>(H2-G2)/(1.96^2)</f>
+        <v>6.2473969179508544E-2</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.46</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="I3" s="27">
+        <f>(H3-G3)/(1.96^2)</f>
+        <v>8.8504789670970446E-2</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
